--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307103.5524244623</v>
+        <v>304206.1241668253</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.78545761116808</v>
+        <v>4.959070404003381</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986423</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.21008304703112</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924353</v>
+        <v>15.54112977924295</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.4983113685830639</v>
       </c>
       <c r="U3" t="n">
-        <v>18.21008304703112</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4983113685814741</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.13715520272814</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -938,7 +938,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.79500702712463</v>
+        <v>32.68636186295921</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44799022605971</v>
+        <v>16.44799022605969</v>
       </c>
       <c r="G6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.03721739111361</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>18.59473170946464</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>81.30196747731281</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>25.22940779908154</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>59.40945122353459</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292575</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>62.07832301843599</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589018</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>319.9583091357903</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>109.9896305583495</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>100.3137235757495</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>113.8517588228733</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>231.6859861245618</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853825</v>
+        <v>12.76005920853821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762149</v>
+        <v>124.8757279762148</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.11630358748775</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434406</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396102</v>
+        <v>82.30038209396096</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
@@ -1819,10 +1819,10 @@
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.42912100328285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642294961</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189036</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659977</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943552</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2056,13 +2056,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2093,7 +2093,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.554204024749</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707164</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998787</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424825</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612654</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139452995</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221561</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545717</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3904,10 +3904,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707165</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707184</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="C2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="D2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="E2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="F2" t="n">
-        <v>65.894831438921</v>
+        <v>47.500808159095</v>
       </c>
       <c r="G2" t="n">
-        <v>51.86735850103141</v>
+        <v>33.47333522120542</v>
       </c>
       <c r="H2" t="n">
-        <v>51.86735850103141</v>
+        <v>33.47333522120542</v>
       </c>
       <c r="I2" t="n">
-        <v>51.86735850103141</v>
+        <v>33.47333522120542</v>
       </c>
       <c r="J2" t="n">
-        <v>51.86735850103141</v>
+        <v>33.47333522120542</v>
       </c>
       <c r="K2" t="n">
-        <v>40.97295687358891</v>
+        <v>28.46417319695958</v>
       </c>
       <c r="L2" t="n">
-        <v>28.46417319695837</v>
+        <v>28.46417319695958</v>
       </c>
       <c r="M2" t="n">
-        <v>46.49215541351918</v>
+        <v>46.49215541352152</v>
       </c>
       <c r="N2" t="n">
-        <v>64.52013763007999</v>
+        <v>64.52013763008345</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812448</v>
+        <v>72.84033218812904</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="W2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="X2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.84033218812448</v>
+        <v>54.44630890829848</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="C3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="D3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="E3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="F3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="G3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="H3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="I3" t="n">
-        <v>35.54894081171669</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188727</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="K3" t="n">
-        <v>1.45680664376249</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="L3" t="n">
-        <v>19.4847888603233</v>
+        <v>8.210894245727097</v>
       </c>
       <c r="M3" t="n">
-        <v>26.23887646228741</v>
+        <v>26.23887646228903</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867884822</v>
+        <v>44.26685867885097</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540902</v>
+        <v>62.29484089541291</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812448</v>
+        <v>72.84033218812904</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.44630890829507</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829507</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829507</v>
+        <v>54.44630890829848</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829507</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="U3" t="n">
-        <v>36.05228562846565</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="V3" t="n">
-        <v>36.05228562846565</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="W3" t="n">
-        <v>36.05228562846565</v>
+        <v>35.54894081171734</v>
       </c>
       <c r="X3" t="n">
-        <v>35.54894081171669</v>
+        <v>35.54894081171734</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.54894081171669</v>
+        <v>35.54894081171734</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="C4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="D4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="E4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="F4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="G4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="H4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="I4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="J4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="K4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="L4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="M4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="N4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="O4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="R4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="S4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="T4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="U4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="V4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="W4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="X4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.84033218812448</v>
+        <v>1.456806643762581</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="C5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="D5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="E5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="F5" t="n">
-        <v>81.2472951715674</v>
+        <v>71.6016318784047</v>
       </c>
       <c r="G5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
     </row>
     <row r="6">
@@ -4623,16 +4623,16 @@
         <v>117.551221084159</v>
       </c>
       <c r="C6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="D6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="E6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370895426845</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G6" t="n">
         <v>50.63910264659903</v>
@@ -4671,25 +4671,25 @@
         <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.551221084159</v>
+        <v>167.8492079802444</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.711237098389</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="C8" t="n">
-        <v>161.4661258610924</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="D8" t="n">
-        <v>161.4661258610924</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="E8" t="n">
-        <v>161.4661258610924</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="F8" t="n">
-        <v>154.5206251118889</v>
+        <v>140.996681329578</v>
       </c>
       <c r="G8" t="n">
-        <v>140.996681329578</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H8" t="n">
-        <v>140.996681329578</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I8" t="n">
         <v>27.75157009228141</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4832,22 +4832,22 @@
         <v>336.3649920389078</v>
       </c>
       <c r="T8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="U8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="V8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="W8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="X8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.3649920389078</v>
+        <v>254.2417925668747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>187.1261083534822</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="C9" t="n">
-        <v>73.8809971161856</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="D9" t="n">
-        <v>73.8809971161856</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="E9" t="n">
-        <v>73.8809971161856</v>
+        <v>152.6008119651458</v>
       </c>
       <c r="F9" t="n">
-        <v>73.8809971161856</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="G9" t="n">
-        <v>73.8809971161856</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="H9" t="n">
-        <v>73.8809971161856</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4914,19 +4914,19 @@
         <v>439.100581130178</v>
       </c>
       <c r="U9" t="n">
-        <v>325.8554698928814</v>
+        <v>439.100581130178</v>
       </c>
       <c r="V9" t="n">
-        <v>300.3712195907788</v>
+        <v>439.100581130178</v>
       </c>
       <c r="W9" t="n">
-        <v>300.3712195907788</v>
+        <v>439.100581130178</v>
       </c>
       <c r="X9" t="n">
-        <v>300.3712195907788</v>
+        <v>439.100581130178</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.3712195907788</v>
+        <v>379.091034439739</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993892</v>
@@ -4975,37 +4975,37 @@
         <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1506.396382525582</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1137.43386558517</v>
+        <v>1263.548871187318</v>
       </c>
       <c r="D11" t="n">
-        <v>779.1681669784198</v>
+        <v>905.2831725805673</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>519.4949199823219</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927145</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927145</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927145</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5048,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.900444822874</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.36996809671</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.36996809671</v>
+        <v>2748.885133634734</v>
       </c>
       <c r="W11" t="n">
-        <v>2656.601312826596</v>
+        <v>2396.11647836462</v>
       </c>
       <c r="X11" t="n">
-        <v>2283.135554565516</v>
+        <v>2022.650720103541</v>
       </c>
       <c r="Y11" t="n">
-        <v>1892.996222589704</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7661230698583</v>
+        <v>403.1511359853708</v>
       </c>
       <c r="C13" t="n">
-        <v>323.8299401419514</v>
+        <v>234.2149530574638</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8299401419514</v>
+        <v>234.2149530574638</v>
       </c>
       <c r="E13" t="n">
-        <v>323.8299401419514</v>
+        <v>234.2149530574638</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574638</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1191.821308835076</v>
+        <v>1033.581730857158</v>
       </c>
       <c r="W13" t="n">
-        <v>902.4041387981154</v>
+        <v>1033.581730857158</v>
       </c>
       <c r="X13" t="n">
-        <v>674.414587900098</v>
+        <v>805.5921799591406</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.414587900098</v>
+        <v>584.7996008156105</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1655.007551392011</v>
+        <v>1331.741292264951</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.045034451599</v>
+        <v>962.7787753245391</v>
       </c>
       <c r="D14" t="n">
-        <v>1286.045034451599</v>
+        <v>604.5130767177885</v>
       </c>
       <c r="E14" t="n">
-        <v>900.2567818533551</v>
+        <v>218.7248241195443</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637474</v>
+        <v>218.7248241195443</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169294</v>
+        <v>103.7230475307834</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169294</v>
+        <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169294</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773526</v>
@@ -5282,46 +5282,46 @@
         <v>666.2644720055991</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645699</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275286</v>
+        <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235392</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163072</v>
+        <v>2922.039463163075</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140402</v>
+        <v>3363.623974140404</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049511</v>
+        <v>3647.062805049514</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584647</v>
+        <v>3726.52780058465</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045192</v>
+        <v>3623.805524045195</v>
       </c>
       <c r="T14" t="n">
-        <v>3623.805524045192</v>
+        <v>3419.281671577577</v>
       </c>
       <c r="U14" t="n">
-        <v>3370.301617647264</v>
+        <v>3165.777765179649</v>
       </c>
       <c r="V14" t="n">
-        <v>3039.238730303693</v>
+        <v>2834.714877836078</v>
       </c>
       <c r="W14" t="n">
-        <v>2805.212481693024</v>
+        <v>2481.946222565964</v>
       </c>
       <c r="X14" t="n">
-        <v>2431.746723431944</v>
+        <v>2108.480464304884</v>
       </c>
       <c r="Y14" t="n">
-        <v>2041.607391456133</v>
+        <v>1718.341132329072</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603674</v>
+        <v>312.3905408603675</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718612</v>
+        <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169294</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807615</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628282</v>
+        <v>340.9191340937599</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417082</v>
+        <v>745.4339928726401</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475664</v>
+        <v>1236.840621506596</v>
       </c>
       <c r="N15" t="n">
-        <v>1584.85407673636</v>
+        <v>1755.661966290181</v>
       </c>
       <c r="O15" t="n">
-        <v>2037.254452037593</v>
+        <v>2208.062341591414</v>
       </c>
       <c r="P15" t="n">
-        <v>2381.012571295174</v>
+        <v>2551.820460848995</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.8494831493407</v>
+        <v>540.1141439500727</v>
       </c>
       <c r="C16" t="n">
-        <v>779.8494831493407</v>
+        <v>540.1141439500727</v>
       </c>
       <c r="D16" t="n">
-        <v>629.7328437370049</v>
+        <v>389.997504537737</v>
       </c>
       <c r="E16" t="n">
-        <v>481.8197501546118</v>
+        <v>242.0844109553439</v>
       </c>
       <c r="F16" t="n">
-        <v>334.9298026567014</v>
+        <v>242.0844109553439</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169294</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J16" t="n">
-        <v>129.976586552547</v>
+        <v>129.9765865525472</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923169</v>
+        <v>350.9282837923172</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553102</v>
+        <v>689.1968198553107</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479732</v>
+        <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776857</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135872</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389593</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304784</v>
+        <v>1996.937179304786</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.847639528747</v>
+        <v>1807.847639528749</v>
       </c>
       <c r="T16" t="n">
-        <v>1586.717582192512</v>
+        <v>1586.717582192513</v>
       </c>
       <c r="U16" t="n">
-        <v>1586.717582192512</v>
+        <v>1297.6228415917</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.033093986625</v>
+        <v>1297.6228415917</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.615923949664</v>
+        <v>1008.205671554739</v>
       </c>
       <c r="X16" t="n">
-        <v>814.6263730516466</v>
+        <v>780.2161206567218</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.8494831493407</v>
+        <v>559.4235415131917</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5531,34 +5531,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1084.282331896981</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823383</v>
       </c>
       <c r="O18" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771633</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5729,70 +5729,70 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.13298385146</v>
@@ -5826,22 +5826,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L21" t="n">
-        <v>326.5159252754111</v>
+        <v>326.5159252754119</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857002</v>
+        <v>875.4343898857007</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1453.289737812103</v>
       </c>
       <c r="O21" t="n">
         <v>1959.694692760353</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,7 +5975,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5990,16 +5990,16 @@
         <v>337.493301607683</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
@@ -6014,25 +6014,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039789</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315372</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749431</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897935</v>
+        <v>140.0574709897924</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
@@ -6151,13 +6151,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313935</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.178257479668</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6266,10 +6266,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
         <v>2555.644190323788</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6403,7 +6403,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352542</v>
@@ -6412,22 +6412,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,10 +6449,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6494,19 +6494,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
         <v>2049.239235375538</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
         <v>386.7245456315385</v>
@@ -6613,43 +6613,43 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6686,10 +6686,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6698,25 +6698,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6777,22 +6777,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
         <v>386.7245456315385</v>
@@ -6856,28 +6856,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042793</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.528702044362</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902795</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
@@ -6886,10 +6886,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6920,58 +6920,58 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
@@ -7008,25 +7008,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042738</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443566</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902742</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7175,19 +7175,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7251,19 +7251,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K40" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
@@ -7363,7 +7363,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7409,19 +7409,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
@@ -7573,7 +7573,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7585,7 +7585,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7597,10 +7597,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,10 +7609,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796657</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039813</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272423</v>
+        <v>33.63624132272332</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132271845</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -11470,7 +11470,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314038</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534533</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873159</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>141.8396471211842</v>
+        <v>203.91797013962</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>7.793949334344461</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.43141746458178</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>151.8239197480785</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>296.7411590186607</v>
       </c>
       <c r="H14" t="n">
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389956</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>117.5549825928512</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.7156765944495</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434401</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.1555323488119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.188471626141109e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.856737400084967e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-12</v>
       </c>
     </row>
     <row r="29">
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>883571.3135711313</v>
+        <v>883571.3135711318</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>930485.8901520132</v>
+        <v>930485.8901520137</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223749</v>
       </c>
       <c r="F2" t="n">
-        <v>341425.2235328992</v>
+        <v>341425.2235328993</v>
       </c>
       <c r="G2" t="n">
         <v>389994.8406855345</v>
@@ -26332,22 +26332,22 @@
         <v>389994.8406855345</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="J2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="K2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855345</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321812</v>
+        <v>345405.5970321832</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876624</v>
+        <v>50948.63134876438</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.857642954</v>
+        <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654238</v>
+        <v>93369.88484654317</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975342</v>
+        <v>143964.0818975329</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757242</v>
+        <v>4764.558968757778</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908705</v>
+        <v>8128.948714908309</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194619</v>
+        <v>41060.19902194625</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613147</v>
+        <v>24549.15438613183</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875973</v>
+        <v>31434.59456875942</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318207</v>
+        <v>348982.9265318201</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26424,40 +26424,40 @@
         <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
-        <v>14649.95482218994</v>
+        <v>14649.95482219025</v>
       </c>
       <c r="F4" t="n">
-        <v>14701.82240068822</v>
+        <v>14701.82240068823</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610853</v>
       </c>
       <c r="H4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610851</v>
       </c>
       <c r="I4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610852</v>
       </c>
       <c r="J4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610842</v>
       </c>
       <c r="K4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610847</v>
       </c>
       <c r="L4" t="n">
         <v>45839.31483610849</v>
       </c>
       <c r="M4" t="n">
-        <v>45839.31483610859</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="N4" t="n">
-        <v>45839.31483610848</v>
+        <v>45839.31483610847</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.31483610851</v>
+        <v>45839.31483610847</v>
       </c>
       <c r="P4" t="n">
-        <v>45839.31483610851</v>
+        <v>45839.31483610856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425672</v>
+        <v>42410.88882425682</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,16 +26476,16 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390698</v>
+        <v>82183.39720390705</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
@@ -26509,7 +26509,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346804.5717027237</v>
+        <v>-346804.5717027254</v>
       </c>
       <c r="C6" t="n">
-        <v>-39517.01610114421</v>
+        <v>-39517.01610114246</v>
       </c>
       <c r="D6" t="n">
-        <v>-53341.53913166025</v>
+        <v>-53341.53913166014</v>
       </c>
       <c r="E6" t="n">
-        <v>-472789.9090041626</v>
+        <v>-473137.5279339685</v>
       </c>
       <c r="F6" t="n">
-        <v>151170.1190817616</v>
+        <v>150914.4895177997</v>
       </c>
       <c r="G6" t="n">
-        <v>105085.0098497366</v>
+        <v>105085.0098497378</v>
       </c>
       <c r="H6" t="n">
-        <v>249049.0917472708</v>
+        <v>249049.0917472706</v>
       </c>
       <c r="I6" t="n">
-        <v>249049.0917472707</v>
+        <v>249049.0917472705</v>
       </c>
       <c r="J6" t="n">
-        <v>244284.5327785133</v>
+        <v>244284.532778513</v>
       </c>
       <c r="K6" t="n">
-        <v>240920.1430323621</v>
+        <v>240920.1430323625</v>
       </c>
       <c r="L6" t="n">
-        <v>207988.8927253247</v>
+        <v>207988.8927253245</v>
       </c>
       <c r="M6" t="n">
-        <v>69799.44680896887</v>
+        <v>69799.44680896931</v>
       </c>
       <c r="N6" t="n">
-        <v>224499.9373611393</v>
+        <v>224499.9373611388</v>
       </c>
       <c r="O6" t="n">
-        <v>217614.4971785109</v>
+        <v>217614.4971785113</v>
       </c>
       <c r="P6" t="n">
         <v>249049.0917472707</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>31.61020235221393</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221411</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228084</v>
+        <v>352.1154025228101</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26744,13 +26744,13 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808273</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620122</v>
       </c>
       <c r="H3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,13 +26796,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461617</v>
+        <v>931.6319501461626</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26829,7 +26829,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.636139422638474e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M2" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.991410790518524e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228084</v>
+        <v>352.1154025228101</v>
       </c>
       <c r="C3" t="n">
-        <v>44.7445407447596</v>
+        <v>44.74454074475796</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947963</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497473</v>
+        <v>81.79094321497541</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118497</v>
+        <v>106.5922268118486</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,34 +27009,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009351</v>
+        <v>31.58492398009237</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438699</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427911</v>
+        <v>130.6231620427895</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009351</v>
+        <v>31.58492398009237</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
@@ -27045,10 +27045,10 @@
         <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.230494743869</v>
+        <v>100.2304947438699</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427911</v>
+        <v>130.6231620427895</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.636139422638474e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009351</v>
+        <v>31.58492398009237</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438699</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427911</v>
+        <v>130.6231620427895</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27397,16 +27397,16 @@
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517704</v>
+        <v>155.9033104517702</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107737</v>
+        <v>60.90377530107681</v>
       </c>
       <c r="K2" t="n">
-        <v>29.2424853587946</v>
+        <v>35.06887256595844</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986318</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855393</v>
+        <v>9.466590991520718</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621863</v>
+        <v>69.44336957621792</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443899</v>
+        <v>126.6666668443895</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365428</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493833</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>148.3231006028351</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,10 +27476,10 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279201</v>
+        <v>73.44590915279188</v>
       </c>
       <c r="J3" t="n">
-        <v>37.07171450884483</v>
+        <v>55.28179755587563</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,28 +27500,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.09276014253929</v>
+        <v>25.0927601425377</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006888</v>
+        <v>98.65548851006866</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200256</v>
+        <v>157.6151642200255</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>196.6136432232342</v>
       </c>
       <c r="U3" t="n">
-        <v>207.6814713826433</v>
+        <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.4849001138873</v>
       </c>
       <c r="X3" t="n">
-        <v>205.274673834896</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,34 +27555,34 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>136.3554298199557</v>
       </c>
       <c r="J4" t="n">
-        <v>82.103593809562</v>
+        <v>82.10359380956179</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018308</v>
+        <v>55.24219515018274</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323812</v>
+        <v>40.48311410323768</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660859</v>
+        <v>39.39257270660812</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988175</v>
+        <v>30.51901051988129</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406202</v>
+        <v>48.70751749406159</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728792</v>
+        <v>60.93221199728757</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850178</v>
+        <v>98.33557584850152</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545824</v>
+        <v>148.7431818545823</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.7388905389833</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2236106924079309</v>
+        <v>17.33225585657335</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,7 +27707,7 @@
         <v>128.6212221673242</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188784</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
@@ -27743,7 +27743,7 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>106.0324861546552</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>321.696624272367</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.1602316460839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410433</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>133.4152018823102</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27932,16 +27932,16 @@
         <v>54.42052352494369</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27950,10 +27950,10 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>207.5711793503437</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>146.2732445537698</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>62.66918826090808</v>
       </c>
       <c r="K10" t="n">
         <v>29.26310570632462</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13.4762806411652</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
         <v>33.88793923037925</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,19 +28141,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.929428045903998e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605506</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221457</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624354</v>
+        <v>1.415539306624361</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396667</v>
+        <v>14.49689192396674</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863548</v>
+        <v>54.57257911863574</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256089</v>
+        <v>120.1421292256095</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750179</v>
+        <v>180.0619080750187</v>
       </c>
       <c r="L2" t="n">
-        <v>223.382719130123</v>
+        <v>223.3827191301241</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743039</v>
+        <v>248.556316274305</v>
       </c>
       <c r="N2" t="n">
-        <v>247.623146643622</v>
+        <v>247.6231466436232</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490044</v>
+        <v>238.5024483490055</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167156</v>
+        <v>203.5563217167166</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982309</v>
+        <v>152.8623202982316</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974219</v>
+        <v>88.9188709697426</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970251</v>
+        <v>32.25660194970266</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748115</v>
+        <v>6.196523314748144</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299483</v>
+        <v>0.1132431445299489</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660408</v>
+        <v>0.7573802997660444</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898342</v>
+        <v>7.314699210898377</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720799</v>
+        <v>26.07647084720811</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079074</v>
+        <v>71.55582911079107</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951155</v>
+        <v>122.300309195116</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269053</v>
+        <v>145.3766904889293</v>
       </c>
       <c r="M3" t="n">
-        <v>148.956344631073</v>
+        <v>160.3441169690506</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303644</v>
+        <v>149.5517951303656</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914755</v>
+        <v>160.8063274914767</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211135</v>
+        <v>144.6264188211142</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645111</v>
+        <v>96.67893089645156</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389507</v>
+        <v>47.0240154538953</v>
       </c>
       <c r="S3" t="n">
-        <v>14.0680068838122</v>
+        <v>14.06800688381226</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004348</v>
+        <v>3.052774103004362</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039744</v>
+        <v>0.04982765130039767</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706381</v>
+        <v>0.6349622012706411</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660769</v>
+        <v>5.645391207660794</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730247</v>
+        <v>19.09504510730256</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983411</v>
+        <v>44.89182762983432</v>
       </c>
       <c r="K4" t="n">
-        <v>73.7710630203523</v>
+        <v>73.77106302035264</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800016</v>
+        <v>94.4015621780006</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099647</v>
+        <v>99.53321124099693</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535145</v>
+        <v>97.1665339453519</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778077</v>
+        <v>89.7490209577812</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185969</v>
+        <v>76.79579205186005</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094407</v>
+        <v>53.16942578094432</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258705</v>
+        <v>28.55020952258718</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305284</v>
+        <v>11.06565945305289</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519998</v>
+        <v>2.713020314520011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748939</v>
+        <v>0.03463430188748955</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,13 +31613,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601094</v>
+        <v>4.709819673601097</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226722</v>
+        <v>48.23444073226725</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665063</v>
+        <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223012</v>
+        <v>399.7400575223015</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058357</v>
+        <v>599.106724305836</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418053</v>
+        <v>743.2448681418057</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622087</v>
+        <v>827.0031237622092</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098279</v>
+        <v>840.3848989098284</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304569</v>
+        <v>793.5516295304574</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384298</v>
+        <v>677.2779563384303</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775905</v>
+        <v>508.6075392775908</v>
       </c>
       <c r="R14" t="n">
-        <v>295.853210071845</v>
+        <v>295.8532100718452</v>
       </c>
       <c r="S14" t="n">
-        <v>107.325015812185</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.6172356211888</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880874</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681946</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137564</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146175</v>
+        <v>86.76232079146179</v>
       </c>
       <c r="J15" t="n">
-        <v>238.082439766736</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744263</v>
+        <v>406.9208107744266</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332884</v>
+        <v>547.1552472332886</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755087</v>
+        <v>638.5043658755091</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6256416395924</v>
+        <v>655.4036765111965</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062961</v>
+        <v>599.5663205062965</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068358</v>
+        <v>481.2048309068361</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999621</v>
+        <v>149.1394641284257</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762295</v>
+        <v>46.80744312762298</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131889</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238123</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244426</v>
+        <v>2.112662964244428</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482773</v>
+        <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291423</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
         <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.453024391307</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023032</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587877</v>
+        <v>331.1695226587879</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102405</v>
+        <v>323.2950516102407</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824759</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118894</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150492</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320847</v>
+        <v>94.99300928320852</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869604</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408001</v>
+        <v>9.026832665408007</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860598</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171342</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879727</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171634</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869748</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654294</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117587</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565674</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829623</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734506</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537073</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781096</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>254.1392278303053</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160626</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578281</v>
       </c>
       <c r="P18" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892348</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486995</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051419</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151665</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692046</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381983</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227497</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925529</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118154</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,31 +32543,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>249.6234851251522</v>
+        <v>382.5296487700718</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>151.0727449683534</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33038,7 +33038,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33272,7 +33272,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33749,7 +33749,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33986,7 +33986,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,13 +34223,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,10 +34448,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317669</v>
+        <v>8.404236927318777</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703112</v>
+        <v>6.822310709055066</v>
       </c>
       <c r="M3" t="n">
-        <v>6.822310709054656</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703112</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678329</v>
+        <v>10.65201140678397</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,13 +35261,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951858</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.694152995615</v>
+        <v>218.6941529956152</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608551</v>
+        <v>379.0168732608554</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718181</v>
+        <v>507.4784531718184</v>
       </c>
       <c r="M14" t="n">
-        <v>596.656890534936</v>
+        <v>596.6568905349365</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132371</v>
+        <v>610.9718353132375</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087702</v>
+        <v>563.4534181087706</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831603</v>
+        <v>446.0449605831607</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.301849403141</v>
+        <v>286.3018494031413</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771289</v>
+        <v>80.26767225771306</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000693</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000673</v>
+        <v>269.0793718000676</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534142</v>
+        <v>408.6008674534144</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534904</v>
+        <v>496.3703319534907</v>
       </c>
       <c r="N15" t="n">
-        <v>240.2839295562591</v>
+        <v>524.0619644278632</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618516</v>
+        <v>456.9700760618521</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925056</v>
+        <v>347.2304234925058</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139406</v>
+        <v>9.15769004240421</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540818</v>
+        <v>56.00609145540827</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654241</v>
+        <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626194</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206283</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894691</v>
+        <v>367.4272239894693</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965156</v>
+        <v>323.2004348965158</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767829</v>
+        <v>252.7955417767831</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335484</v>
+        <v>90.74467096335495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381567</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151679</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276927</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908287</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327293</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133837</v>
       </c>
       <c r="P18" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749045</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>111.069105345278</v>
+        <v>243.9752689901976</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
@@ -36282,7 +36282,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36294,7 +36294,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>8.938711046335131</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36686,7 +36686,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36920,7 +36920,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36993,7 +36993,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
         <v>432.4942538895098</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193567</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414977</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.45993426216029</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37397,7 +37397,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193511</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37634,7 +37634,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>243.9752689901968</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,13 +37871,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38181,19 +38181,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553029</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
